--- a/PassiveIncomeForKids.xlsx
+++ b/PassiveIncomeForKids.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="474" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2ED588D-226B-49CA-A6C7-7A4B487918D9}"/>
+  <xr:revisionPtr revIDLastSave="480" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C9F8973-E670-43A4-882C-F755876B5298}"/>
   <bookViews>
-    <workbookView xWindow="1690" yWindow="1200" windowWidth="18720" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -149,6 +149,51 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">5) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Earn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>passive Income</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>3) Create a tab for each of your kids, right click on Example "Move or Copy"</t>
+  </si>
+  <si>
+    <t>2) The formula in D20 on the Example tab is currently calibrated for $USD</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">3) Review </t>
     </r>
     <r>
@@ -160,7 +205,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Delta, </t>
+      <t>Cashflow,</t>
     </r>
     <r>
       <rPr>
@@ -170,7 +215,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">to explain </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -213,51 +258,6 @@
       </rPr>
       <t xml:space="preserve"> Income</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Earn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>passive Income</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <t>3) Create a tab for each of your kids, right click on Example "Move or Copy"</t>
-  </si>
-  <si>
-    <t>2) The formula in D20 on the Example tab is currently calibrated for $USD</t>
   </si>
 </sst>
 </file>
@@ -2272,9 +2272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99943F9D-2307-4335-B941-7D9FBD508CB2}">
   <dimension ref="B9:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2318,7 +2316,7 @@
     </row>
     <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B17" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.5">
@@ -2330,7 +2328,7 @@
     </row>
     <row r="19" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B19" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.5">
@@ -2354,9 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009EFE25-A739-4807-8599-EAA136DEC9C0}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2412,7 +2408,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E5" s="24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -2424,7 +2420,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="28"/>
     </row>

--- a/PassiveIncomeForKids.xlsx
+++ b/PassiveIncomeForKids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="480" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C9F8973-E670-43A4-882C-F755876B5298}"/>
+  <xr:revisionPtr revIDLastSave="481" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F04B1653-7C2D-4DD6-84F9-CEE4F0A63DF4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Delta</t>
   </si>
   <si>
     <t>Age</t>
@@ -258,6 +255,9 @@
       </rPr>
       <t xml:space="preserve"> Income</t>
     </r>
+  </si>
+  <si>
+    <t>Cashflow</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +1999,7 @@
     <tableColumn id="4" xr3:uid="{11B7026E-2DE3-4F3C-9CB1-9379CA4ADBA6}" name="Total" dataDxfId="1">
       <calculatedColumnFormula>C20+D20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39555BFC-AE54-43F6-B631-86893A3BC484}" name="Delta" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{39555BFC-AE54-43F6-B631-86893A3BC484}" name="Cashflow" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(Table1343[[#This Row],[Amount]]-E19,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2284,12 +2284,12 @@
   <sheetData>
     <row r="9" spans="2:3" ht="31" x14ac:dyDescent="0.7">
       <c r="B9" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="26" x14ac:dyDescent="0.6">
       <c r="B11" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="19" t="str">
         <f>HYPERLINK("https://youtu.be/QWOeKkN0xWo", "Stop Paying Allowance! Teach kids about passive income.")</f>
@@ -2298,25 +2298,25 @@
     </row>
     <row r="12" spans="2:3" ht="26" x14ac:dyDescent="0.6">
       <c r="B12" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="26" x14ac:dyDescent="0.6">
       <c r="B15" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B16" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B17" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.5">
@@ -2328,17 +2328,17 @@
     </row>
     <row r="19" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B19" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B20" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B21" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2371,28 +2371,28 @@
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="23"/>
     </row>
@@ -2402,25 +2402,25 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E5" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E6" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">

--- a/PassiveIncomeForKids.xlsx
+++ b/PassiveIncomeForKids.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="481" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F04B1653-7C2D-4DD6-84F9-CEE4F0A63DF4}"/>
+  <xr:revisionPtr revIDLastSave="808" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C743B5C-D434-4E14-AF72-84D5D5B750EB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3670" yWindow="740" windowWidth="18720" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
-    <sheet name="Example" sheetId="5" r:id="rId2"/>
+    <sheet name="Example_USD" sheetId="5" r:id="rId2"/>
+    <sheet name="Example_INR" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -110,39 +111,7 @@
     <t>The Ultimate Passive Income Spreadsheet For Kids</t>
   </si>
   <si>
-    <t>1) Update the formula in the Example tab to reflect your local currency</t>
-  </si>
-  <si>
-    <t>4) Explain it to them, and watch them learn</t>
-  </si>
-  <si>
     <t>Instructions For Parents</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5) Have your kids update all </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GREEN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cells and columns</t>
-    </r>
   </si>
   <si>
     <r>
@@ -182,12 +151,6 @@
       </rPr>
       <t>!</t>
     </r>
-  </si>
-  <si>
-    <t>3) Create a tab for each of your kids, right click on Example "Move or Copy"</t>
-  </si>
-  <si>
-    <t>2) The formula in D20 on the Example tab is currently calibrated for $USD</t>
   </si>
   <si>
     <r>
@@ -259,16 +222,125 @@
   <si>
     <t>Cashflow</t>
   </si>
+  <si>
+    <t>Formula, for reference:</t>
+  </si>
+  <si>
+    <t>A higher multipler earns more money. 2 is the recommended and default setting.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HOW?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Video above for additional context</t>
+    </r>
+  </si>
+  <si>
+    <t>Set Multiplier:</t>
+  </si>
+  <si>
+    <t>Max Income Target</t>
+  </si>
+  <si>
+    <t>Amyrah</t>
+  </si>
+  <si>
+    <t>1) Calibrate to your local currency</t>
+  </si>
+  <si>
+    <t>3) Copy a tab for each of your kids, right click on one of the Example Tabs, then "Move or Copy"</t>
+  </si>
+  <si>
+    <t>6) Remove the example data, and help correctly fill out the first row</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7) Have your kids update all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cells and columns</t>
+    </r>
+  </si>
+  <si>
+    <t>8) Watch them learn, and develop good habits to save money</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value of $1 USD in local Currency - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Set Exchange rate: </t>
+    </r>
+  </si>
+  <si>
+    <t>4) Calibrate the "multipler"</t>
+  </si>
+  <si>
+    <t>5) Explain the spreadsheet to your kids with the example data</t>
+  </si>
+  <si>
+    <t>1) The default currency for the spreadsheet is $USD</t>
+  </si>
+  <si>
+    <t>This example assumes the local currency is $INR. Set the excange rate on the Instructions tab for this example to make sense.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +472,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -428,12 +516,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -457,30 +545,6 @@
       <right style="thin">
         <color rgb="FF00B050"/>
       </right>
-      <top style="thin">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF00B050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00B050"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF00B050"/>
       </top>
@@ -566,12 +630,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8"/>
+      </right>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,14 +840,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -616,27 +847,208 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF00B050"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF00B050"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF00B050"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF00B050"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF00B050"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF00B050"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF00B050"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF00B050"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF00B050"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF00B050"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF00B050"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF00B050"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -794,7 +1206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Example!$D$19</c:f>
+              <c:f>Example_USD!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -815,7 +1227,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Example!$B$20:$B$37</c:f>
+              <c:f>Example_USD!$B$21:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="18"/>
@@ -878,7 +1290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Example!$D$20:$D$37</c:f>
+              <c:f>Example_USD!$D$21:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
@@ -965,7 +1377,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Example!$E$19</c:f>
+              <c:f>Example_USD!$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -993,12 +1405,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Example!$E$20:$E$37</c:f>
+              <c:f>Example_USD!$E$21:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>102.93</c:v>
+                  <c:v>102.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>105.43</c:v>
@@ -1256,12 +1668,523 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent5"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Example_INR!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Example_INR!$B$22:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>43730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Example_INR!$D$22:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4078-4F1C-B531-CF0C7A7FBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="291825376"/>
+        <c:axId val="285681808"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Example_INR!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Example!#REF!</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Example_INR!$E$22:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7700.3076923076924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7948.7692307692314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8194.923076923078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7825.6923076923076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8610.3076923076933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8787.2307692307695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9125.6923076923085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9310.3076923076933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10477.23076923077</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16268.76923076923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16838</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17191.846153846152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17914.923076923078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17899.538461538461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18268.76923076923</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18714.923076923078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4078-4F1C-B531-CF0C7A7FBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="286380320"/>
+        <c:axId val="285910848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="286380320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285910848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="285910848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286380320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285681808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291825376"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="291825376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="285681808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent5"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1325,6 +2248,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1841,6 +2804,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1851,8 +3330,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>146986</xdr:rowOff>
     </xdr:to>
@@ -1901,15 +3380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8466</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13758</xdr:rowOff>
+      <xdr:colOff>4233</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>140759</xdr:rowOff>
+      <xdr:colOff>1576917</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1937,15 +3416,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>348191</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>269878</xdr:rowOff>
+      <xdr:colOff>331258</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>159811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28218</xdr:rowOff>
+      <xdr:colOff>1294342</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2817</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1974,7 +3453,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="699558" y="756711"/>
+          <a:off x="682625" y="718611"/>
           <a:ext cx="963084" cy="964840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1987,20 +3466,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>351365</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1574799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7941E37-5EAB-41A5-B458-8EA93472D554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>331258</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1294342</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD97D123-2A6E-46E8-8371-FBEEF3647ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680508" y="712261"/>
+          <a:ext cx="963084" cy="954257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C816005-1627-4A4E-A562-4F9C6913D4AC}" name="Table1343" displayName="Table1343" ref="B19:F37" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
-  <autoFilter ref="B19:F37" xr:uid="{7D026693-9F12-4467-B4A3-9172E8C5BC40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C816005-1627-4A4E-A562-4F9C6913D4AC}" name="Table1343" displayName="Table1343" ref="B20:F38" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
+  <autoFilter ref="B20:F38" xr:uid="{7D026693-9F12-4467-B4A3-9172E8C5BC40}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3E55C78C-A780-495D-8A4C-4258222AE4D5}" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1726254D-28F6-41C7-B6CB-F1155B446152}" name="Amount" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4A3FDC76-753A-4E01-A654-A2C89FDCF826}" name="Income" dataDxfId="2">
-      <calculatedColumnFormula>MIN(((FLOOR(C20/10, 1)+1)*2)/10, $C$3)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3E55C78C-A780-495D-8A4C-4258222AE4D5}" name="Date" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1726254D-28F6-41C7-B6CB-F1155B446152}" name="Amount" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{4A3FDC76-753A-4E01-A654-A2C89FDCF826}" name="Income" dataDxfId="0">
+      <calculatedColumnFormula>MIN(((FLOOR(C21/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{11B7026E-2DE3-4F3C-9CB1-9379CA4ADBA6}" name="Total" dataDxfId="1">
-      <calculatedColumnFormula>C20+D20</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{11B7026E-2DE3-4F3C-9CB1-9379CA4ADBA6}" name="Total" dataDxfId="11">
+      <calculatedColumnFormula>C21+D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39555BFC-AE54-43F6-B631-86893A3BC484}" name="Cashflow" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(Table1343[[#This Row],[Amount]]-E19,0)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{39555BFC-AE54-43F6-B631-86893A3BC484}" name="Cashflow" dataDxfId="10">
+      <calculatedColumnFormula>IFERROR(Table1343[[#This Row],[Amount]]-E20,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BEEB9F1-7500-4FAC-B82A-42E6425E3B1B}" name="Table13432" displayName="Table13432" ref="B21:F39" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
+  <autoFilter ref="B21:F39" xr:uid="{7D026693-9F12-4467-B4A3-9172E8C5BC40}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{30692BD3-6825-4AF6-8FBF-AA2F09E21BD4}" name="Date" dataDxfId="5" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4C53F967-FF25-4D5D-8B94-4877E7217154}" name="Amount" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{20860E49-560E-4337-BE04-23DE68F0D49A}" name="Income" dataDxfId="1">
+      <calculatedColumnFormula>MIN(((FLOOR(C22/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{04095BB9-BE25-4488-B830-8D8A17218F64}" name="Total" dataDxfId="3">
+      <calculatedColumnFormula>C22+D22</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4CFA5D44-C4D1-4260-8A4F-09872D305446}" name="Cashflow" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(Table13432[[#This Row],[Amount]]-E21,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2270,34 +3862,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99943F9D-2307-4335-B941-7D9FBD508CB2}">
-  <dimension ref="B9:C21"/>
+  <dimension ref="B9:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="13.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.90625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:3" ht="31" x14ac:dyDescent="0.7">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="26" x14ac:dyDescent="0.6">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="str">
-        <f>HYPERLINK("https://youtu.be/QWOeKkN0xWo", "Stop Paying Allowance! Teach kids about passive income.")</f>
-        <v>Stop Paying Allowance! Teach kids about passive income.</v>
+      <c r="C11" s="15" t="str">
+        <f>HYPERLINK("https://youtu.be/QWOeKkN0xWo", "Stop Paying Allowance! Teach kids about passive income")</f>
+        <v>Stop Paying Allowance! Teach kids about passive income</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="26" x14ac:dyDescent="0.6">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2305,43 +3899,96 @@
       </c>
     </row>
     <row r="15" spans="2:3" ht="26" x14ac:dyDescent="0.6">
-      <c r="B15" s="18" t="s">
-        <v>17</v>
+      <c r="B15" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B16" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B17" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B18" s="20"/>
-      <c r="C18" s="3" t="str">
+      <c r="B16" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="3" t="str">
         <f>"=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*2)/10, &lt;Age&gt;)"</f>
         <v>=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*2)/10, &lt;Age&gt;)</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B19" s="20" t="s">
+    <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B18" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B20" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B23" s="16"/>
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B20" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B21" s="20" t="s">
-        <v>18</v>
+    <row r="24" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B24" s="16"/>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B25" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B26" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B27" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B28" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2350,7 +3997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009EFE25-A739-4807-8599-EAA136DEC9C0}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -2358,10 +4005,12 @@
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="6" width="22.6328125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="12.90625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2370,86 +4019,95 @@
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="42">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="2">
+        <f>C3/Instructions!D19</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="45">
+        <f xml:space="preserve"> ((C3 / Instructions!$D$22) *100)/Instructions!$D$19</f>
+        <v>400</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E5" s="24" t="s">
-        <v>22</v>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="13" t="s">
+      <c r="E7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C10" s="37" t="str">
         <f>C2&amp;", watch your money grow!"</f>
         <v>Josie, watch your money grow!</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="14" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="I10" s="6"/>
-    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
@@ -2480,409 +4138,434 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="11">
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
         <v>43730</v>
       </c>
-      <c r="C20" s="12">
-        <v>100.73</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" ref="D20:D37" si="0">MIN(((FLOOR(C20/10, 1)+1)*2)/10, $C$3)</f>
+      <c r="C21" s="12">
+        <v>100</v>
+      </c>
+      <c r="D21" s="8">
+        <f>MIN(((FLOOR(C21/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E20" s="8">
-        <f t="shared" ref="E20:E37" si="1">C20+D20</f>
-        <v>102.93</v>
-      </c>
-      <c r="F20" s="8">
-        <f>IFERROR(Table1343[[#This Row],[Amount]]-E19,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="11">
-        <v>43743</v>
-      </c>
-      <c r="C21" s="12">
-        <v>103.23</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
       <c r="E21" s="8">
-        <f t="shared" si="1"/>
-        <v>105.43</v>
+        <f t="shared" ref="E21:E38" si="0">C21+D21</f>
+        <v>102.2</v>
       </c>
       <c r="F21" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E20,0)</f>
-        <v>0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="11">
-        <v>43751</v>
+        <v>43743</v>
       </c>
       <c r="C22" s="12">
-        <v>106.43</v>
+        <v>103.23</v>
       </c>
       <c r="D22" s="8">
+        <f>MIN(((FLOOR(C22/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="1"/>
-        <v>108.63000000000001</v>
+        <v>105.43</v>
       </c>
       <c r="F22" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E21,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
-        <v>43765</v>
+        <v>43751</v>
       </c>
       <c r="C23" s="12">
-        <v>101.63</v>
+        <v>106.43</v>
       </c>
       <c r="D23" s="8">
+        <f>MIN(((FLOOR(C23/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="1"/>
-        <v>103.83</v>
+        <v>108.63000000000001</v>
       </c>
       <c r="F23" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E22,0)</f>
-        <v>-7.0000000000000142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
-        <v>43789</v>
+        <v>43765</v>
       </c>
       <c r="C24" s="12">
-        <v>111.83</v>
+        <v>101.63</v>
       </c>
       <c r="D24" s="8">
+        <f>MIN(((FLOOR(C24/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="1"/>
-        <v>114.23</v>
+        <v>103.83</v>
       </c>
       <c r="F24" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E23,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-7.0000000000000142</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="11">
-        <v>43792</v>
+        <v>43789</v>
       </c>
       <c r="C25" s="12">
-        <v>114.13</v>
+        <v>111.83</v>
       </c>
       <c r="D25" s="8">
+        <f>MIN(((FLOOR(C25/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="1"/>
-        <v>116.53</v>
+        <v>114.23</v>
       </c>
       <c r="F25" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E24,0)</f>
-        <v>-0.10000000000000853</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="11">
-        <v>43800</v>
+        <v>43792</v>
       </c>
       <c r="C26" s="12">
-        <v>118.53</v>
+        <v>114.13</v>
       </c>
       <c r="D26" s="8">
+        <f>MIN(((FLOOR(C26/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="1"/>
-        <v>120.93</v>
+        <v>116.53</v>
       </c>
       <c r="F26" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E25,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-0.10000000000000853</v>
+      </c>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="11">
-        <v>43809</v>
+        <v>43800</v>
       </c>
       <c r="C27" s="12">
+        <v>118.53</v>
+      </c>
+      <c r="D27" s="8">
+        <f>MIN(((FLOOR(C27/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
         <v>120.93</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="1"/>
-        <v>123.53</v>
       </c>
       <c r="F27" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E26,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="11">
-        <v>43814</v>
+        <v>43809</v>
       </c>
       <c r="C28" s="12">
-        <v>123.63</v>
+        <v>120.93</v>
       </c>
       <c r="D28" s="8">
+        <f>MIN(((FLOOR(C28/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.6</v>
+      </c>
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="1"/>
-        <v>126.22999999999999</v>
+        <v>123.53</v>
       </c>
       <c r="F28" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E27,0)</f>
-        <v>9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="11">
-        <v>43821</v>
+        <v>43814</v>
       </c>
       <c r="C29" s="12">
-        <v>126.23</v>
+        <v>123.63</v>
       </c>
       <c r="D29" s="8">
+        <f>MIN(((FLOOR(C29/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.6</v>
+      </c>
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="1"/>
-        <v>128.83000000000001</v>
+        <v>126.22999999999999</v>
       </c>
       <c r="F29" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E28,0)</f>
-        <v>1.4210854715202004E-14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="H29" s="31"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="11">
-        <v>43842</v>
+        <v>43821</v>
       </c>
       <c r="C30" s="12">
-        <v>136.1</v>
+        <v>126.23</v>
       </c>
       <c r="D30" s="8">
+        <f>MIN(((FLOOR(C30/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.6</v>
+      </c>
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="1"/>
-        <v>138.9</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="F30" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E29,0)</f>
-        <v>7.2699999999999818</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="H30" s="31"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="11">
-        <v>43856</v>
+        <v>43842</v>
       </c>
       <c r="C31" s="12">
-        <v>211.39</v>
+        <v>136.1</v>
       </c>
       <c r="D31" s="8">
+        <f>MIN(((FLOOR(C31/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>2.8</v>
+      </c>
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="1"/>
-        <v>215.79</v>
+        <v>138.9</v>
       </c>
       <c r="F31" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E30,0)</f>
-        <v>72.489999999999981</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+        <v>7.2699999999999818</v>
+      </c>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="11">
-        <v>43863</v>
+        <v>43856</v>
       </c>
       <c r="C32" s="12">
-        <v>218.79</v>
+        <v>211.39</v>
       </c>
       <c r="D32" s="8">
+        <f>MIN(((FLOOR(C32/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="1"/>
-        <v>223.19</v>
+        <v>215.79</v>
       </c>
       <c r="F32" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E31,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+        <v>72.489999999999981</v>
+      </c>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="11">
-        <v>43870</v>
+        <v>43863</v>
       </c>
       <c r="C33" s="12">
-        <v>223.39</v>
+        <v>218.79</v>
       </c>
       <c r="D33" s="8">
+        <f>MIN(((FLOOR(C33/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E33" s="8">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="1"/>
-        <v>227.98999999999998</v>
+        <v>223.19</v>
       </c>
       <c r="F33" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E32,0)</f>
-        <v>0.19999999999998863</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="11">
-        <v>43878</v>
+        <v>43870</v>
       </c>
       <c r="C34" s="12">
-        <v>232.79</v>
+        <v>223.39</v>
       </c>
       <c r="D34" s="8">
+        <f>MIN(((FLOOR(C34/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E34" s="8">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="1"/>
-        <v>237.59</v>
+        <v>227.98999999999998</v>
       </c>
       <c r="F34" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E33,0)</f>
-        <v>4.8000000000000114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="11">
-        <v>43891</v>
+        <v>43878</v>
       </c>
       <c r="C35" s="12">
-        <v>232.59</v>
+        <v>232.79</v>
       </c>
       <c r="D35" s="8">
+        <f>MIN(((FLOOR(C35/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>4.8</v>
+      </c>
+      <c r="E35" s="8">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="1"/>
-        <v>237.39000000000001</v>
+        <v>237.59</v>
       </c>
       <c r="F35" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E34,0)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="11">
-        <v>43898</v>
+        <v>43891</v>
       </c>
       <c r="C36" s="12">
-        <v>237.39</v>
+        <v>232.59</v>
       </c>
       <c r="D36" s="8">
+        <f>MIN(((FLOOR(C36/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>4.8</v>
+      </c>
+      <c r="E36" s="8">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="1"/>
-        <v>242.19</v>
+        <v>237.39000000000001</v>
       </c>
       <c r="F36" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E35,0)</f>
-        <v>-2.8421709430404007E-14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-5</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="11">
-        <v>43933</v>
+        <v>43898</v>
       </c>
       <c r="C37" s="12">
-        <v>243.19</v>
+        <v>237.39</v>
       </c>
       <c r="D37" s="8">
+        <f>MIN(((FLOOR(C37/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>4.8</v>
+      </c>
+      <c r="E37" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="1"/>
-        <v>248.19</v>
+        <v>242.19</v>
       </c>
       <c r="F37" s="8">
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E36,0)</f>
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="11">
+        <v>43933</v>
+      </c>
+      <c r="C38" s="12">
+        <v>243.19</v>
+      </c>
+      <c r="D38" s="8">
+        <f>MIN(((FLOOR(C38/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <v>5</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>248.19</v>
+      </c>
+      <c r="F38" s="8">
+        <f>IFERROR(Table1343[[#This Row],[Amount]]-E37,0)</f>
         <v>1</v>
       </c>
+      <c r="H38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20:F37">
+  <conditionalFormatting sqref="F21:F38">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0.1" gte="0"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -2893,4 +4576,617 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967F527-8567-4362-A8FC-AD90449E7B79}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="6" width="22.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="42">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="44">
+        <f xml:space="preserve"> ((C4 / Instructions!$D$22) *100)/Instructions!$D$19</f>
+        <v>400</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="46" t="str">
+        <f>C3&amp;", watch your money grow!"</f>
+        <v>Amyrah, watch your money grow!</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="11">
+        <v>43730</v>
+      </c>
+      <c r="C22" s="12">
+        <v>7692.3076923076924</v>
+      </c>
+      <c r="D22" s="8">
+        <f>MIN(((FLOOR(C22/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:E39" si="0">C22+D22</f>
+        <v>7700.3076923076924</v>
+      </c>
+      <c r="F22" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="11">
+        <v>43743</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7940.7692307692314</v>
+      </c>
+      <c r="D23" s="8">
+        <f>MIN(((FLOOR(C23/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>7948.7692307692314</v>
+      </c>
+      <c r="F23" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E22,0)</f>
+        <v>240.46153846153902</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="11">
+        <v>43751</v>
+      </c>
+      <c r="C24" s="12">
+        <v>8186.923076923078</v>
+      </c>
+      <c r="D24" s="8">
+        <f>MIN(((FLOOR(C24/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>8194.923076923078</v>
+      </c>
+      <c r="F24" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E23,0)</f>
+        <v>238.15384615384664</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="11">
+        <v>43765</v>
+      </c>
+      <c r="C25" s="12">
+        <v>7817.6923076923076</v>
+      </c>
+      <c r="D25" s="8">
+        <f>MIN(((FLOOR(C25/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>7825.6923076923076</v>
+      </c>
+      <c r="F25" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E24,0)</f>
+        <v>-377.23076923077042</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="11">
+        <v>43789</v>
+      </c>
+      <c r="C26" s="12">
+        <v>8602.3076923076933</v>
+      </c>
+      <c r="D26" s="8">
+        <f>MIN(((FLOOR(C26/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>8610.3076923076933</v>
+      </c>
+      <c r="F26" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E25,0)</f>
+        <v>776.61538461538566</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="11">
+        <v>43792</v>
+      </c>
+      <c r="C27" s="12">
+        <v>8779.2307692307695</v>
+      </c>
+      <c r="D27" s="8">
+        <f>MIN(((FLOOR(C27/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>8787.2307692307695</v>
+      </c>
+      <c r="F27" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E26,0)</f>
+        <v>168.92307692307622</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="11">
+        <v>43800</v>
+      </c>
+      <c r="C28" s="12">
+        <v>9117.6923076923085</v>
+      </c>
+      <c r="D28" s="8">
+        <f>MIN(((FLOOR(C28/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>9125.6923076923085</v>
+      </c>
+      <c r="F28" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E27,0)</f>
+        <v>330.46153846153902</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="11">
+        <v>43809</v>
+      </c>
+      <c r="C29" s="12">
+        <v>9302.3076923076933</v>
+      </c>
+      <c r="D29" s="8">
+        <f>MIN(((FLOOR(C29/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>9310.3076923076933</v>
+      </c>
+      <c r="F29" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E28,0)</f>
+        <v>176.61538461538476</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="11">
+        <v>43814</v>
+      </c>
+      <c r="C30" s="12">
+        <v>9510</v>
+      </c>
+      <c r="D30" s="8">
+        <f>MIN(((FLOOR(C30/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>9518</v>
+      </c>
+      <c r="F30" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E29,0)</f>
+        <v>199.69230769230671</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="11">
+        <v>43821</v>
+      </c>
+      <c r="C31" s="12">
+        <v>9710</v>
+      </c>
+      <c r="D31" s="8">
+        <f>MIN(((FLOOR(C31/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>9718</v>
+      </c>
+      <c r="F31" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E30,0)</f>
+        <v>192</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="11">
+        <v>43842</v>
+      </c>
+      <c r="C32" s="12">
+        <v>10469.23076923077</v>
+      </c>
+      <c r="D32" s="8">
+        <f>MIN(((FLOOR(C32/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>10477.23076923077</v>
+      </c>
+      <c r="F32" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E31,0)</f>
+        <v>751.23076923076951</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
+        <v>43856</v>
+      </c>
+      <c r="C33" s="12">
+        <v>16260.76923076923</v>
+      </c>
+      <c r="D33" s="8">
+        <f>MIN(((FLOOR(C33/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>16268.76923076923</v>
+      </c>
+      <c r="F33" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E32,0)</f>
+        <v>5783.538461538461</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="11">
+        <v>43863</v>
+      </c>
+      <c r="C34" s="12">
+        <v>16830</v>
+      </c>
+      <c r="D34" s="8">
+        <f>MIN(((FLOOR(C34/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>16838</v>
+      </c>
+      <c r="F34" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E33,0)</f>
+        <v>561.23076923076951</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="11">
+        <v>43870</v>
+      </c>
+      <c r="C35" s="12">
+        <v>17183.846153846152</v>
+      </c>
+      <c r="D35" s="8">
+        <f>MIN(((FLOOR(C35/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>17191.846153846152</v>
+      </c>
+      <c r="F35" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E34,0)</f>
+        <v>345.84615384615245</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="11">
+        <v>43878</v>
+      </c>
+      <c r="C36" s="12">
+        <v>17906.923076923078</v>
+      </c>
+      <c r="D36" s="8">
+        <f>MIN(((FLOOR(C36/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>17914.923076923078</v>
+      </c>
+      <c r="F36" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E35,0)</f>
+        <v>715.0769230769256</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="11">
+        <v>43891</v>
+      </c>
+      <c r="C37" s="12">
+        <v>17891.538461538461</v>
+      </c>
+      <c r="D37" s="8">
+        <f>MIN(((FLOOR(C37/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>17899.538461538461</v>
+      </c>
+      <c r="F37" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E36,0)</f>
+        <v>-23.384615384617064</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="11">
+        <v>43898</v>
+      </c>
+      <c r="C38" s="12">
+        <v>18260.76923076923</v>
+      </c>
+      <c r="D38" s="8">
+        <f>MIN(((FLOOR(C38/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>18268.76923076923</v>
+      </c>
+      <c r="F38" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E37,0)</f>
+        <v>361.23076923076951</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="11">
+        <v>43933</v>
+      </c>
+      <c r="C39" s="12">
+        <v>18706.923076923078</v>
+      </c>
+      <c r="D39" s="8">
+        <f>MIN(((FLOOR(C39/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+        <v>8</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>18714.923076923078</v>
+      </c>
+      <c r="F39" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E38,0)</f>
+        <v>438.15384615384755</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{9D664075-1207-406C-A34C-267072429023}">
+            <x14:iconSet iconSet="3Arrows">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-0.1/Instructions!$D$19</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0.1/Instructions!$D$19</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F22:F39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/PassiveIncomeForKids.xlsx
+++ b/PassiveIncomeForKids.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="808" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C743B5C-D434-4E14-AF72-84D5D5B750EB}"/>
+  <xr:revisionPtr revIDLastSave="809" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14336EBC-4B0C-4FDC-B04A-715BBD1B3E19}"/>
   <bookViews>
-    <workbookView xWindow="3670" yWindow="740" windowWidth="18720" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -857,20 +857,8 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,16 +866,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,9 +890,6 @@
     <xf numFmtId="166" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,22 +897,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
@@ -999,6 +989,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -1028,9 +1021,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor rgb="FF000000"/>
@@ -1049,6 +1039,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -3565,13 +3565,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3E55C78C-A780-495D-8A4C-4258222AE4D5}" name="Date" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="2" xr3:uid="{1726254D-28F6-41C7-B6CB-F1155B446152}" name="Amount" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{4A3FDC76-753A-4E01-A654-A2C89FDCF826}" name="Income" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{4A3FDC76-753A-4E01-A654-A2C89FDCF826}" name="Income" dataDxfId="11">
       <calculatedColumnFormula>MIN(((FLOOR(C21/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{11B7026E-2DE3-4F3C-9CB1-9379CA4ADBA6}" name="Total" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{11B7026E-2DE3-4F3C-9CB1-9379CA4ADBA6}" name="Total" dataDxfId="10">
       <calculatedColumnFormula>C21+D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39555BFC-AE54-43F6-B631-86893A3BC484}" name="Cashflow" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{39555BFC-AE54-43F6-B631-86893A3BC484}" name="Cashflow" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(Table1343[[#This Row],[Amount]]-E20,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3580,18 +3580,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BEEB9F1-7500-4FAC-B82A-42E6425E3B1B}" name="Table13432" displayName="Table13432" ref="B21:F39" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BEEB9F1-7500-4FAC-B82A-42E6425E3B1B}" name="Table13432" displayName="Table13432" ref="B21:F39" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
   <autoFilter ref="B21:F39" xr:uid="{7D026693-9F12-4467-B4A3-9172E8C5BC40}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{30692BD3-6825-4AF6-8FBF-AA2F09E21BD4}" name="Date" dataDxfId="5" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4C53F967-FF25-4D5D-8B94-4877E7217154}" name="Amount" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20860E49-560E-4337-BE04-23DE68F0D49A}" name="Income" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{30692BD3-6825-4AF6-8FBF-AA2F09E21BD4}" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4C53F967-FF25-4D5D-8B94-4877E7217154}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{20860E49-560E-4337-BE04-23DE68F0D49A}" name="Income" dataDxfId="2">
       <calculatedColumnFormula>MIN(((FLOOR(C22/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{04095BB9-BE25-4488-B830-8D8A17218F64}" name="Total" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{04095BB9-BE25-4488-B830-8D8A17218F64}" name="Total" dataDxfId="1">
       <calculatedColumnFormula>C22+D22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4CFA5D44-C4D1-4260-8A4F-09872D305446}" name="Cashflow" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{4CFA5D44-C4D1-4260-8A4F-09872D305446}" name="Cashflow" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(Table13432[[#This Row],[Amount]]-E21,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3882,7 +3882,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="26" x14ac:dyDescent="0.6">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="15" t="str">
@@ -3891,7 +3891,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="26" x14ac:dyDescent="0.6">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3909,10 +3909,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="3" t="str">
         <f>"=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*2)/10, &lt;Age&gt;)"</f>
         <v>=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*2)/10, &lt;Age&gt;)</v>
@@ -3924,11 +3924,11 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28">
+      <c r="C19" s="43"/>
+      <c r="D19" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3943,11 +3943,11 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="28">
+      <c r="C22" s="45"/>
+      <c r="D22" s="26">
         <v>2</v>
       </c>
     </row>
@@ -4019,10 +4019,10 @@
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2"/>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="35">
         <v>8</v>
       </c>
       <c r="D3" s="2">
@@ -4050,10 +4050,10 @@
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="38">
         <f xml:space="preserve"> ((C3 / Instructions!$D$22) *100)/Instructions!$D$19</f>
         <v>400</v>
       </c>
@@ -4086,20 +4086,20 @@
       <c r="F7" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="34"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="str">
+      <c r="C10" s="46" t="str">
         <f>C2&amp;", watch your money grow!"</f>
         <v>Josie, watch your money grow!</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="28" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="26" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E20,0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="11">
@@ -4218,7 +4218,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E21,0)</f>
         <v>1.0300000000000011</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
@@ -4239,7 +4239,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E22,0)</f>
         <v>1</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
@@ -4260,7 +4260,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E23,0)</f>
         <v>-7.0000000000000142</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="11">
@@ -4281,7 +4281,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E24,0)</f>
         <v>8</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="11">
@@ -4302,7 +4302,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E25,0)</f>
         <v>-0.10000000000000853</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="11">
@@ -4323,7 +4323,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E26,0)</f>
         <v>2</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="11">
@@ -4344,7 +4344,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E27,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="11">
@@ -4365,7 +4365,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E28,0)</f>
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="H29" s="31"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="11">
@@ -4386,7 +4386,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E29,0)</f>
         <v>1.4210854715202004E-14</v>
       </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="11">
@@ -4407,7 +4407,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E30,0)</f>
         <v>7.2699999999999818</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="11">
@@ -4428,7 +4428,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E31,0)</f>
         <v>72.489999999999981</v>
       </c>
-      <c r="H32" s="31"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="11">
@@ -4449,7 +4449,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E32,0)</f>
         <v>3</v>
       </c>
-      <c r="H33" s="31"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="11">
@@ -4470,7 +4470,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E33,0)</f>
         <v>0.19999999999998863</v>
       </c>
-      <c r="H34" s="31"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="11">
@@ -4491,7 +4491,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E34,0)</f>
         <v>4.8000000000000114</v>
       </c>
-      <c r="H35" s="31"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="11">
@@ -4512,7 +4512,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E35,0)</f>
         <v>-5</v>
       </c>
-      <c r="H36" s="31"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="11">
@@ -4533,7 +4533,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E36,0)</f>
         <v>-2.8421709430404007E-14</v>
       </c>
-      <c r="H37" s="31"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="11">
@@ -4554,7 +4554,7 @@
         <f>IFERROR(Table1343[[#This Row],[Amount]]-E37,0)</f>
         <v>1</v>
       </c>
-      <c r="H38" s="31"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4607,10 +4607,10 @@
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2"/>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="35">
         <v>8</v>
       </c>
       <c r="D4" s="2"/>
@@ -4635,14 +4635,14 @@
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="37">
         <f xml:space="preserve"> ((C4 / Instructions!$D$22) *100)/Instructions!$D$19</f>
         <v>400</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="20" t="s">
         <v>12</v>
       </c>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="46" t="str">
+      <c r="C11" s="49" t="str">
         <f>C3&amp;", watch your money grow!"</f>
         <v>Amyrah, watch your money grow!</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="48" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4779,8 +4779,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E21,0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
@@ -4801,8 +4801,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E22,0)</f>
         <v>240.46153846153902</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
@@ -4823,8 +4823,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E23,0)</f>
         <v>238.15384615384664</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="11">
@@ -4845,8 +4845,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E24,0)</f>
         <v>-377.23076923077042</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="11">
@@ -4867,8 +4867,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E25,0)</f>
         <v>776.61538461538566</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="11">
@@ -4889,8 +4889,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E26,0)</f>
         <v>168.92307692307622</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="11">
@@ -4911,8 +4911,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E27,0)</f>
         <v>330.46153846153902</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="11">
@@ -4933,8 +4933,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E28,0)</f>
         <v>176.61538461538476</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="11">
@@ -4955,8 +4955,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E29,0)</f>
         <v>199.69230769230671</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="11">
@@ -4977,8 +4977,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E30,0)</f>
         <v>192</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="11">
@@ -4999,8 +4999,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E31,0)</f>
         <v>751.23076923076951</v>
       </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="11">
@@ -5021,8 +5021,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E32,0)</f>
         <v>5783.538461538461</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="11">
@@ -5043,8 +5043,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E33,0)</f>
         <v>561.23076923076951</v>
       </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="11">
@@ -5065,8 +5065,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E34,0)</f>
         <v>345.84615384615245</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="11">
@@ -5087,8 +5087,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E35,0)</f>
         <v>715.0769230769256</v>
       </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="11">
@@ -5109,8 +5109,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E36,0)</f>
         <v>-23.384615384617064</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="11">
@@ -5131,8 +5131,8 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E37,0)</f>
         <v>361.23076923076951</v>
       </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="11">
@@ -5153,40 +5153,27 @@
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E38,0)</f>
         <v>438.15384615384755</v>
       </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C11:E11"/>
   </mergeCells>
+  <conditionalFormatting sqref="F22:F39">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0.1" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{9D664075-1207-406C-A34C-267072429023}">
-            <x14:iconSet iconSet="3Arrows">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-0.1/Instructions!$D$19</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0.1/Instructions!$D$19</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F22:F39</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/PassiveIncomeForKids.xlsx
+++ b/PassiveIncomeForKids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="809" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14336EBC-4B0C-4FDC-B04A-715BBD1B3E19}"/>
+  <xr:revisionPtr revIDLastSave="812" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97361E98-2DBA-49F0-9333-7FAE0BB83C96}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1963,7 +1963,7 @@
                   <c:v>16838</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17191.846153846152</c:v>
+                  <c:v>16846</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>17914.923076923078</c:v>
@@ -4564,8 +4564,8 @@
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="-0.1"/>
-        <cfvo type="num" val="0.1" gte="0"/>
+        <cfvo type="num" val="-0.11"/>
+        <cfvo type="num" val="0.11" gte="0"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -5051,7 +5051,7 @@
         <v>43870</v>
       </c>
       <c r="C35" s="12">
-        <v>17183.846153846152</v>
+        <v>16838</v>
       </c>
       <c r="D35" s="8">
         <f>MIN(((FLOOR(C35/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
@@ -5059,11 +5059,11 @@
       </c>
       <c r="E35" s="8">
         <f t="shared" si="0"/>
-        <v>17191.846153846152</v>
+        <v>16846</v>
       </c>
       <c r="F35" s="8">
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E34,0)</f>
-        <v>345.84615384615245</v>
+        <v>0</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="F36" s="8">
         <f>IFERROR(Table13432[[#This Row],[Amount]]-E35,0)</f>
-        <v>715.0769230769256</v>
+        <v>1060.923076923078</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -5164,8 +5164,8 @@
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="-0.1"/>
-        <cfvo type="num" val="0.1" gte="0"/>
+        <cfvo type="num" val="-0.11"/>
+        <cfvo type="num" val="0.11" gte="0"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>

--- a/PassiveIncomeForKids.xlsx
+++ b/PassiveIncomeForKids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="812" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97361E98-2DBA-49F0-9333-7FAE0BB83C96}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="8_{B7A906DA-3A97-4DD3-853C-3384CA86BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4A79557-EADC-4B47-9FEF-562476D0CF1C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,9 +264,6 @@
     <t>Amyrah</t>
   </si>
   <si>
-    <t>1) Calibrate to your local currency</t>
-  </si>
-  <si>
     <t>3) Copy a tab for each of your kids, right click on one of the Example Tabs, then "Move or Copy"</t>
   </si>
   <si>
@@ -302,8 +299,14 @@
     <t>8) Watch them learn, and develop good habits to save money</t>
   </si>
   <si>
+    <t>4) Calibrate the "multipler"</t>
+  </si>
+  <si>
+    <t>5) Explain the spreadsheet to your kids with the example data</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Value of $1 USD in local Currency - </t>
+      <t xml:space="preserve">The value of $1 USD in local currency - </t>
     </r>
     <r>
       <rPr>
@@ -318,16 +321,13 @@
     </r>
   </si>
   <si>
-    <t>4) Calibrate the "multipler"</t>
+    <t xml:space="preserve">1) Calibrate to your local currency. The default currency for the spreadsheet is $USD. </t>
   </si>
   <si>
-    <t>5) Explain the spreadsheet to your kids with the example data</t>
+    <t xml:space="preserve">This example assumes the local currency is $INR. This is the same spreasdheet with example values in $INR instead of $USD. </t>
   </si>
   <si>
-    <t>1) The default currency for the spreadsheet is $USD</t>
-  </si>
-  <si>
-    <t>This example assumes the local currency is $INR. Set the excange rate on the Instructions tab for this example to make sense.</t>
+    <t>Set the excange rate on the Instructions tab for this example to make sense.</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,6 +897,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1720,7 +1723,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Example_INR!$D$21</c:f>
+              <c:f>Example_INR!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1741,7 +1744,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Example_INR!$B$22:$B$39</c:f>
+              <c:f>Example_INR!$B$23:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1804,7 +1807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Example_INR!$D$22:$D$39</c:f>
+              <c:f>Example_INR!$D$23:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1891,7 +1894,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Example_INR!$E$21</c:f>
+              <c:f>Example_INR!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1919,7 +1922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Example_INR!$E$22:$E$39</c:f>
+              <c:f>Example_INR!$E$23:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3472,13 +3475,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>351365</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1574799</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3510,13 +3513,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>331258</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>159811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1294342</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3566,7 +3569,7 @@
     <tableColumn id="1" xr3:uid="{3E55C78C-A780-495D-8A4C-4258222AE4D5}" name="Date" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="2" xr3:uid="{1726254D-28F6-41C7-B6CB-F1155B446152}" name="Amount" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{4A3FDC76-753A-4E01-A654-A2C89FDCF826}" name="Income" dataDxfId="11">
-      <calculatedColumnFormula>MIN(((FLOOR(C21/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</calculatedColumnFormula>
+      <calculatedColumnFormula>MIN(((FLOOR(C21/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{11B7026E-2DE3-4F3C-9CB1-9379CA4ADBA6}" name="Total" dataDxfId="10">
       <calculatedColumnFormula>C21+D21</calculatedColumnFormula>
@@ -3580,19 +3583,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BEEB9F1-7500-4FAC-B82A-42E6425E3B1B}" name="Table13432" displayName="Table13432" ref="B21:F39" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
-  <autoFilter ref="B21:F39" xr:uid="{7D026693-9F12-4467-B4A3-9172E8C5BC40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BEEB9F1-7500-4FAC-B82A-42E6425E3B1B}" name="Table13432" displayName="Table13432" ref="B22:F40" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="B22:F40" xr:uid="{7D026693-9F12-4467-B4A3-9172E8C5BC40}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{30692BD3-6825-4AF6-8FBF-AA2F09E21BD4}" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{4C53F967-FF25-4D5D-8B94-4877E7217154}" name="Amount" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{20860E49-560E-4337-BE04-23DE68F0D49A}" name="Income" dataDxfId="2">
-      <calculatedColumnFormula>MIN(((FLOOR(C22/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</calculatedColumnFormula>
+      <calculatedColumnFormula>MIN(((FLOOR(C23/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{04095BB9-BE25-4488-B830-8D8A17218F64}" name="Total" dataDxfId="1">
-      <calculatedColumnFormula>C22+D22</calculatedColumnFormula>
+      <calculatedColumnFormula>C23+D23</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4CFA5D44-C4D1-4260-8A4F-09872D305446}" name="Cashflow" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(Table13432[[#This Row],[Amount]]-E21,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(Table13432[[#This Row],[Amount]]-E22,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3862,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99943F9D-2307-4335-B941-7D9FBD508CB2}">
-  <dimension ref="B9:D28"/>
+  <dimension ref="B9:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3905,17 +3908,16 @@
     </row>
     <row r="16" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B16" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="3" t="str">
-        <f>"=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*2)/10, &lt;Age&gt;)"</f>
-        <v>=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*2)/10, &lt;Age&gt;)</v>
+      <c r="B17" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.5">
@@ -3923,49 +3925,50 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B20" s="16" t="s">
-        <v>26</v>
+    <row r="19" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B19" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="26">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B21" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="26">
-        <v>2</v>
+      <c r="B21" s="16"/>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B22" s="16"/>
+      <c r="C22" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f>"=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*&lt;Multiplier&gt;)/10, &lt;Age&gt;)"</f>
+        <v>=MIN(((FLOOR(&lt;Money You Have&gt;/10, 1)+1)*&lt;Multiplier&gt;)/10, &lt;Age&gt;)</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B24" s="16"/>
-      <c r="C24" s="3" t="s">
-        <v>21</v>
+      <c r="B24" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B25" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="21" x14ac:dyDescent="0.5">
@@ -3978,16 +3981,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B28" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B19:C19"/>
+  <mergeCells count="2">
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4039,10 +4036,7 @@
       <c r="C3" s="35">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <f>C3/Instructions!D19</f>
-        <v>8</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
@@ -4054,7 +4048,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="38">
-        <f xml:space="preserve"> ((C3 / Instructions!$D$22) *100)/Instructions!$D$19</f>
+        <f xml:space="preserve"> ((C3 / Instructions!$D$20) *100)/Instructions!$D$17</f>
         <v>400</v>
       </c>
       <c r="D4" s="2"/>
@@ -4093,12 +4087,12 @@
       <c r="B10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="str">
+      <c r="C10" s="47" t="str">
         <f>C2&amp;", watch your money grow!"</f>
         <v>Josie, watch your money grow!</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="26" t="s">
         <v>2</v>
       </c>
@@ -4186,7 +4180,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="8">
-        <f>MIN(((FLOOR(C21/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C21/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E21" s="8">
@@ -4207,7 +4201,7 @@
         <v>103.23</v>
       </c>
       <c r="D22" s="8">
-        <f>MIN(((FLOOR(C22/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C22/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E22" s="8">
@@ -4228,7 +4222,7 @@
         <v>106.43</v>
       </c>
       <c r="D23" s="8">
-        <f>MIN(((FLOOR(C23/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C23/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E23" s="8">
@@ -4249,7 +4243,7 @@
         <v>101.63</v>
       </c>
       <c r="D24" s="8">
-        <f>MIN(((FLOOR(C24/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C24/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E24" s="8">
@@ -4270,7 +4264,7 @@
         <v>111.83</v>
       </c>
       <c r="D25" s="8">
-        <f>MIN(((FLOOR(C25/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C25/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.4</v>
       </c>
       <c r="E25" s="8">
@@ -4291,7 +4285,7 @@
         <v>114.13</v>
       </c>
       <c r="D26" s="8">
-        <f>MIN(((FLOOR(C26/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C26/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.4</v>
       </c>
       <c r="E26" s="8">
@@ -4312,7 +4306,7 @@
         <v>118.53</v>
       </c>
       <c r="D27" s="8">
-        <f>MIN(((FLOOR(C27/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C27/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.4</v>
       </c>
       <c r="E27" s="8">
@@ -4333,7 +4327,7 @@
         <v>120.93</v>
       </c>
       <c r="D28" s="8">
-        <f>MIN(((FLOOR(C28/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C28/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.6</v>
       </c>
       <c r="E28" s="8">
@@ -4354,7 +4348,7 @@
         <v>123.63</v>
       </c>
       <c r="D29" s="8">
-        <f>MIN(((FLOOR(C29/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C29/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.6</v>
       </c>
       <c r="E29" s="8">
@@ -4375,7 +4369,7 @@
         <v>126.23</v>
       </c>
       <c r="D30" s="8">
-        <f>MIN(((FLOOR(C30/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C30/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.6</v>
       </c>
       <c r="E30" s="8">
@@ -4396,7 +4390,7 @@
         <v>136.1</v>
       </c>
       <c r="D31" s="8">
-        <f>MIN(((FLOOR(C31/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C31/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>2.8</v>
       </c>
       <c r="E31" s="8">
@@ -4417,7 +4411,7 @@
         <v>211.39</v>
       </c>
       <c r="D32" s="8">
-        <f>MIN(((FLOOR(C32/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C32/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="8">
@@ -4438,7 +4432,7 @@
         <v>218.79</v>
       </c>
       <c r="D33" s="8">
-        <f>MIN(((FLOOR(C33/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C33/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="8">
@@ -4459,7 +4453,7 @@
         <v>223.39</v>
       </c>
       <c r="D34" s="8">
-        <f>MIN(((FLOOR(C34/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C34/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="E34" s="8">
@@ -4480,7 +4474,7 @@
         <v>232.79</v>
       </c>
       <c r="D35" s="8">
-        <f>MIN(((FLOOR(C35/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C35/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>4.8</v>
       </c>
       <c r="E35" s="8">
@@ -4501,7 +4495,7 @@
         <v>232.59</v>
       </c>
       <c r="D36" s="8">
-        <f>MIN(((FLOOR(C36/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C36/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>4.8</v>
       </c>
       <c r="E36" s="8">
@@ -4522,7 +4516,7 @@
         <v>237.39</v>
       </c>
       <c r="D37" s="8">
-        <f>MIN(((FLOOR(C37/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C37/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>4.8</v>
       </c>
       <c r="E37" s="8">
@@ -4543,7 +4537,7 @@
         <v>243.19</v>
       </c>
       <c r="D38" s="8">
-        <f>MIN(((FLOOR(C38/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$3/Instructions!$D$19)</f>
+        <f>MIN(((FLOOR(C38/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$3/Instructions!$D$17)</f>
         <v>5</v>
       </c>
       <c r="E38" s="8">
@@ -4580,7 +4574,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967F527-8567-4362-A8FC-AD90449E7B79}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -4595,108 +4589,106 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="17"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C5" s="35">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="18" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="36" t="s">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="37">
-        <f xml:space="preserve"> ((C4 / Instructions!$D$22) *100)/Instructions!$D$19</f>
+      <c r="C6" s="37">
+        <f xml:space="preserve"> ((C5 / Instructions!$D$20) *100)/Instructions!$D$17</f>
         <v>400</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="20" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39" t="s">
+      <c r="F9" s="24"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="49" t="str">
-        <f>C3&amp;", watch your money grow!"</f>
+      <c r="C12" s="50" t="str">
+        <f>C4&amp;", watch your money grow!"</f>
         <v>Amyrah, watch your money grow!</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="40" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
@@ -4727,6 +4719,8 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -4737,430 +4731,435 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>43730</v>
-      </c>
-      <c r="C22" s="12">
-        <v>7692.3076923076924</v>
-      </c>
-      <c r="D22" s="8">
-        <f>MIN(((FLOOR(C22/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
-        <v>8</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" ref="E22:E39" si="0">C22+D22</f>
-        <v>7700.3076923076924</v>
-      </c>
-      <c r="F22" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
+        <v>43730</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7692.3076923076924</v>
+      </c>
+      <c r="D23" s="8">
+        <f>MIN(((FLOOR(C23/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ref="E23:E40" si="0">C23+D23</f>
+        <v>7700.3076923076924</v>
+      </c>
+      <c r="F23" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="11">
         <v>43743</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C24" s="12">
         <v>7940.7692307692314</v>
       </c>
-      <c r="D23" s="8">
-        <f>MIN(((FLOOR(C23/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D24" s="8">
+        <f>MIN(((FLOOR(C24/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>7948.7692307692314</v>
       </c>
-      <c r="F23" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E22,0)</f>
+      <c r="F24" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E23,0)</f>
         <v>240.46153846153902</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="11">
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="11">
         <v>43751</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C25" s="12">
         <v>8186.923076923078</v>
       </c>
-      <c r="D24" s="8">
-        <f>MIN(((FLOOR(C24/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D25" s="8">
+        <f>MIN(((FLOOR(C25/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>8194.923076923078</v>
       </c>
-      <c r="F24" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E23,0)</f>
+      <c r="F25" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E24,0)</f>
         <v>238.15384615384664</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="11">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="11">
         <v>43765</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C26" s="12">
         <v>7817.6923076923076</v>
       </c>
-      <c r="D25" s="8">
-        <f>MIN(((FLOOR(C25/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D26" s="8">
+        <f>MIN(((FLOOR(C26/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>7825.6923076923076</v>
       </c>
-      <c r="F25" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E24,0)</f>
+      <c r="F26" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E25,0)</f>
         <v>-377.23076923077042</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="11">
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="11">
         <v>43789</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C27" s="12">
         <v>8602.3076923076933</v>
       </c>
-      <c r="D26" s="8">
-        <f>MIN(((FLOOR(C26/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D27" s="8">
+        <f>MIN(((FLOOR(C27/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>8610.3076923076933</v>
       </c>
-      <c r="F26" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E25,0)</f>
+      <c r="F27" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E26,0)</f>
         <v>776.61538461538566</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="11">
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="11">
         <v>43792</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C28" s="12">
         <v>8779.2307692307695</v>
       </c>
-      <c r="D27" s="8">
-        <f>MIN(((FLOOR(C27/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D28" s="8">
+        <f>MIN(((FLOOR(C28/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>8787.2307692307695</v>
       </c>
-      <c r="F27" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E26,0)</f>
+      <c r="F28" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E27,0)</f>
         <v>168.92307692307622</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="11">
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="11">
         <v>43800</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C29" s="12">
         <v>9117.6923076923085</v>
       </c>
-      <c r="D28" s="8">
-        <f>MIN(((FLOOR(C28/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D29" s="8">
+        <f>MIN(((FLOOR(C29/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>9125.6923076923085</v>
       </c>
-      <c r="F28" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E27,0)</f>
+      <c r="F29" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E28,0)</f>
         <v>330.46153846153902</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="11">
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="11">
         <v>43809</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C30" s="12">
         <v>9302.3076923076933</v>
       </c>
-      <c r="D29" s="8">
-        <f>MIN(((FLOOR(C29/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D30" s="8">
+        <f>MIN(((FLOOR(C30/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>9310.3076923076933</v>
       </c>
-      <c r="F29" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E28,0)</f>
+      <c r="F30" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E29,0)</f>
         <v>176.61538461538476</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="11">
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="11">
         <v>43814</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C31" s="12">
         <v>9510</v>
       </c>
-      <c r="D30" s="8">
-        <f>MIN(((FLOOR(C30/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D31" s="8">
+        <f>MIN(((FLOOR(C31/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>9518</v>
       </c>
-      <c r="F30" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E29,0)</f>
+      <c r="F31" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E30,0)</f>
         <v>199.69230769230671</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="11">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="11">
         <v>43821</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C32" s="12">
         <v>9710</v>
       </c>
-      <c r="D31" s="8">
-        <f>MIN(((FLOOR(C31/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D32" s="8">
+        <f>MIN(((FLOOR(C32/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>9718</v>
       </c>
-      <c r="F31" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E30,0)</f>
+      <c r="F32" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E31,0)</f>
         <v>192</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="11">
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
         <v>43842</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C33" s="12">
         <v>10469.23076923077</v>
       </c>
-      <c r="D32" s="8">
-        <f>MIN(((FLOOR(C32/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D33" s="8">
+        <f>MIN(((FLOOR(C33/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <f t="shared" si="0"/>
         <v>10477.23076923077</v>
       </c>
-      <c r="F32" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E31,0)</f>
+      <c r="F33" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E32,0)</f>
         <v>751.23076923076951</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="11">
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="11">
         <v>43856</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C34" s="12">
         <v>16260.76923076923</v>
       </c>
-      <c r="D33" s="8">
-        <f>MIN(((FLOOR(C33/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D34" s="8">
+        <f>MIN(((FLOOR(C34/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <f t="shared" si="0"/>
         <v>16268.76923076923</v>
       </c>
-      <c r="F33" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E32,0)</f>
+      <c r="F34" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E33,0)</f>
         <v>5783.538461538461</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="11">
         <v>43863</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C35" s="12">
         <v>16830</v>
       </c>
-      <c r="D34" s="8">
-        <f>MIN(((FLOOR(C34/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D35" s="8">
+        <f>MIN(((FLOOR(C35/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <f t="shared" si="0"/>
         <v>16838</v>
       </c>
-      <c r="F34" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E33,0)</f>
+      <c r="F35" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E34,0)</f>
         <v>561.23076923076951</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="11">
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="11">
         <v>43870</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C36" s="12">
         <v>16838</v>
       </c>
-      <c r="D35" s="8">
-        <f>MIN(((FLOOR(C35/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D36" s="8">
+        <f>MIN(((FLOOR(C36/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <f t="shared" si="0"/>
         <v>16846</v>
       </c>
-      <c r="F35" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E34,0)</f>
+      <c r="F36" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E35,0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="11">
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="11">
         <v>43878</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C37" s="12">
         <v>17906.923076923078</v>
       </c>
-      <c r="D36" s="8">
-        <f>MIN(((FLOOR(C36/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D37" s="8">
+        <f>MIN(((FLOOR(C37/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="8">
         <f t="shared" si="0"/>
         <v>17914.923076923078</v>
       </c>
-      <c r="F36" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E35,0)</f>
+      <c r="F37" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E36,0)</f>
         <v>1060.923076923078</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="11">
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="11">
         <v>43891</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C38" s="12">
         <v>17891.538461538461</v>
       </c>
-      <c r="D37" s="8">
-        <f>MIN(((FLOOR(C37/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D38" s="8">
+        <f>MIN(((FLOOR(C38/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <f t="shared" si="0"/>
         <v>17899.538461538461</v>
       </c>
-      <c r="F37" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E36,0)</f>
+      <c r="F38" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E37,0)</f>
         <v>-23.384615384617064</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="11">
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="11">
         <v>43898</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C39" s="12">
         <v>18260.76923076923</v>
       </c>
-      <c r="D38" s="8">
-        <f>MIN(((FLOOR(C38/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D39" s="8">
+        <f>MIN(((FLOOR(C39/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <f t="shared" si="0"/>
         <v>18268.76923076923</v>
       </c>
-      <c r="F38" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E37,0)</f>
+      <c r="F39" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E38,0)</f>
         <v>361.23076923076951</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="11">
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="11">
         <v>43933</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C40" s="12">
         <v>18706.923076923078</v>
       </c>
-      <c r="D39" s="8">
-        <f>MIN(((FLOOR(C39/10, 1/Instructions!$D$19)+1)*Instructions!$D$22)/10, $C$4/Instructions!$D$19)</f>
+      <c r="D40" s="8">
+        <f>MIN(((FLOOR(C40/10, 1/Instructions!$D$17)+1)*Instructions!$D$20)/10, $C$5/Instructions!$D$17)</f>
         <v>8</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <f t="shared" si="0"/>
         <v>18714.923076923078</v>
       </c>
-      <c r="F39" s="8">
-        <f>IFERROR(Table13432[[#This Row],[Amount]]-E38,0)</f>
+      <c r="F40" s="8">
+        <f>IFERROR(Table13432[[#This Row],[Amount]]-E39,0)</f>
         <v>438.15384615384755</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
-  <conditionalFormatting sqref="F22:F39">
+  <conditionalFormatting sqref="F23:F40">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
